--- a/back_src/exports/SQL2Excel/20240924_통계추출결과_양식없음.xlsx
+++ b/back_src/exports/SQL2Excel/20240924_통계추출결과_양식없음.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:I37"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,18 +440,18 @@
   <cols>
     <col width="7.8" customWidth="1" min="2" max="2"/>
     <col width="5.2" customWidth="1" min="3" max="3"/>
-    <col width="26.6" customWidth="1" min="4" max="4"/>
-    <col width="26.6" customWidth="1" min="5" max="5"/>
-    <col width="26.6" customWidth="1" min="6" max="6"/>
-    <col width="26.6" customWidth="1" min="7" max="7"/>
-    <col width="17.4" customWidth="1" min="8" max="8"/>
-    <col width="17.4" customWidth="1" min="9" max="9"/>
+    <col width="19.8" customWidth="1" min="4" max="4"/>
+    <col width="19.8" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * "부산항의 2년간 화물 통계 데이터, 특히 년도, 월, 국적별 적컨테이너 TEU, 공컨테이너 TEU, 총톤수 정보를 년도와 월 순으로 정렬한 조회 요청"</t>
+          <t xml:space="preserve"> * "부산 향의 지난 2년간 데이터 조회 요청"</t>
         </is>
       </c>
     </row>
@@ -475,32 +475,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>아국선_적컨테이너_TEU</t>
+          <t>아국선_총_톤_수</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>외국선_적컨테이너_TEU</t>
+          <t>외국선_총_톤_수</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>아국선_공컨테이너_TEU</t>
+          <t>아국선_적컨_TEU</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>외국선_공컨테이너_TEU</t>
+          <t>외국선_적컨_TEU</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>아국선_총톤수</t>
+          <t>아국선_공컨_TEU</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>외국선_총톤수</t>
+          <t>외국선_공컨_TEU</t>
         </is>
       </c>
     </row>
@@ -510,26 +510,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198596</v>
+        <v>842007</v>
       </c>
       <c r="E8" t="n">
-        <v>1483041</v>
+        <v>14122698</v>
       </c>
       <c r="F8" t="n">
-        <v>39655</v>
+        <v>16841</v>
       </c>
       <c r="G8" t="n">
-        <v>245463</v>
+        <v>192540</v>
       </c>
       <c r="H8" t="n">
-        <v>8530470</v>
+        <v>4649</v>
       </c>
       <c r="I8" t="n">
-        <v>93296180</v>
+        <v>26164</v>
       </c>
     </row>
     <row r="9">
@@ -538,26 +538,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>196599</v>
+        <v>10635154</v>
       </c>
       <c r="E9" t="n">
-        <v>1270251</v>
+        <v>101951061</v>
       </c>
       <c r="F9" t="n">
-        <v>46064</v>
+        <v>209587</v>
       </c>
       <c r="G9" t="n">
-        <v>230045</v>
+        <v>1335053</v>
       </c>
       <c r="H9" t="n">
-        <v>9350739</v>
+        <v>38557</v>
       </c>
       <c r="I9" t="n">
-        <v>87693879</v>
+        <v>245824</v>
       </c>
     </row>
     <row r="10">
@@ -566,26 +566,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>200559</v>
+        <v>11172536</v>
       </c>
       <c r="E10" t="n">
-        <v>1378985</v>
+        <v>106229371</v>
       </c>
       <c r="F10" t="n">
-        <v>40499</v>
+        <v>205648</v>
       </c>
       <c r="G10" t="n">
-        <v>255620</v>
+        <v>1285658</v>
       </c>
       <c r="H10" t="n">
-        <v>8345024</v>
+        <v>35263</v>
       </c>
       <c r="I10" t="n">
-        <v>93201491</v>
+        <v>262669</v>
       </c>
     </row>
     <row r="11">
@@ -594,250 +594,250 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>190967</v>
+        <v>9012405</v>
       </c>
       <c r="E11" t="n">
-        <v>1419544</v>
+        <v>98078266</v>
       </c>
       <c r="F11" t="n">
-        <v>33724</v>
+        <v>187381</v>
       </c>
       <c r="G11" t="n">
-        <v>255193</v>
+        <v>1250519</v>
       </c>
       <c r="H11" t="n">
-        <v>9284086</v>
+        <v>38461</v>
       </c>
       <c r="I11" t="n">
-        <v>95238587</v>
+        <v>264044</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>216516</v>
+        <v>9633923</v>
       </c>
       <c r="E12" t="n">
-        <v>1450618</v>
+        <v>100999324</v>
       </c>
       <c r="F12" t="n">
-        <v>44201</v>
+        <v>188718</v>
       </c>
       <c r="G12" t="n">
-        <v>251631</v>
+        <v>1374977</v>
       </c>
       <c r="H12" t="n">
-        <v>9544864</v>
+        <v>37178</v>
       </c>
       <c r="I12" t="n">
-        <v>92736728</v>
+        <v>238430</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>205095</v>
+        <v>9590973</v>
       </c>
       <c r="E13" t="n">
-        <v>1356641</v>
+        <v>98508549</v>
       </c>
       <c r="F13" t="n">
-        <v>39474</v>
+        <v>179644</v>
       </c>
       <c r="G13" t="n">
-        <v>208962</v>
+        <v>1271348</v>
       </c>
       <c r="H13" t="n">
-        <v>9002736</v>
+        <v>38212</v>
       </c>
       <c r="I13" t="n">
-        <v>87648204</v>
+        <v>269048</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>221713</v>
+        <v>11686698</v>
       </c>
       <c r="E14" t="n">
-        <v>1514688</v>
+        <v>109877105</v>
       </c>
       <c r="F14" t="n">
-        <v>40027</v>
+        <v>218917</v>
       </c>
       <c r="G14" t="n">
-        <v>232174</v>
+        <v>1496295</v>
       </c>
       <c r="H14" t="n">
-        <v>9582685</v>
+        <v>46224</v>
       </c>
       <c r="I14" t="n">
-        <v>98692067</v>
+        <v>315986</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>204515</v>
+        <v>11555083</v>
       </c>
       <c r="E15" t="n">
-        <v>1400304</v>
+        <v>108565379</v>
       </c>
       <c r="F15" t="n">
-        <v>39340</v>
+        <v>188166</v>
       </c>
       <c r="G15" t="n">
-        <v>247468</v>
+        <v>1490179</v>
       </c>
       <c r="H15" t="n">
-        <v>9582524</v>
+        <v>45902</v>
       </c>
       <c r="I15" t="n">
-        <v>94083691</v>
+        <v>300228</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>164354</v>
+        <v>9799331</v>
       </c>
       <c r="E16" t="n">
-        <v>1159216</v>
+        <v>114601688</v>
       </c>
       <c r="F16" t="n">
-        <v>34743</v>
+        <v>172992</v>
       </c>
       <c r="G16" t="n">
-        <v>201568</v>
+        <v>1475065</v>
       </c>
       <c r="H16" t="n">
-        <v>8193972</v>
+        <v>43981</v>
       </c>
       <c r="I16" t="n">
-        <v>85115861</v>
+        <v>297892</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>209587</v>
+        <v>11488221</v>
       </c>
       <c r="E17" t="n">
-        <v>1335053</v>
+        <v>107716937</v>
       </c>
       <c r="F17" t="n">
-        <v>38557</v>
+        <v>200013</v>
       </c>
       <c r="G17" t="n">
-        <v>245824</v>
+        <v>1370687</v>
       </c>
       <c r="H17" t="n">
-        <v>10635154</v>
+        <v>39903</v>
       </c>
       <c r="I17" t="n">
-        <v>101951061</v>
+        <v>291558</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>205648</v>
+        <v>11639448</v>
       </c>
       <c r="E18" t="n">
-        <v>1285658</v>
+        <v>108595610</v>
       </c>
       <c r="F18" t="n">
-        <v>35263</v>
+        <v>200414</v>
       </c>
       <c r="G18" t="n">
-        <v>262669</v>
+        <v>1397437</v>
       </c>
       <c r="H18" t="n">
-        <v>11172536</v>
+        <v>40504</v>
       </c>
       <c r="I18" t="n">
-        <v>106229371</v>
+        <v>258046</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>187381</v>
+        <v>10789821</v>
       </c>
       <c r="E19" t="n">
-        <v>1250519</v>
+        <v>109905730</v>
       </c>
       <c r="F19" t="n">
-        <v>38461</v>
+        <v>194419</v>
       </c>
       <c r="G19" t="n">
-        <v>264044</v>
+        <v>1393662</v>
       </c>
       <c r="H19" t="n">
-        <v>9012405</v>
+        <v>43191</v>
       </c>
       <c r="I19" t="n">
-        <v>98078266</v>
+        <v>262023</v>
       </c>
     </row>
     <row r="20">
@@ -846,26 +846,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>188718</v>
+        <v>10298817</v>
       </c>
       <c r="E20" t="n">
-        <v>1374977</v>
+        <v>113509802</v>
       </c>
       <c r="F20" t="n">
-        <v>37178</v>
+        <v>203501</v>
       </c>
       <c r="G20" t="n">
-        <v>238430</v>
+        <v>1432355</v>
       </c>
       <c r="H20" t="n">
-        <v>9633923</v>
+        <v>48083</v>
       </c>
       <c r="I20" t="n">
-        <v>100999324</v>
+        <v>281563</v>
       </c>
     </row>
     <row r="21">
@@ -874,26 +874,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>179644</v>
+        <v>11140035</v>
       </c>
       <c r="E21" t="n">
-        <v>1271348</v>
+        <v>106149535</v>
       </c>
       <c r="F21" t="n">
-        <v>38212</v>
+        <v>203106</v>
       </c>
       <c r="G21" t="n">
-        <v>269048</v>
+        <v>1371759</v>
       </c>
       <c r="H21" t="n">
-        <v>9590973</v>
+        <v>42314</v>
       </c>
       <c r="I21" t="n">
-        <v>98508549</v>
+        <v>278784</v>
       </c>
     </row>
     <row r="22">
@@ -902,26 +902,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>218917</v>
+        <v>11727030</v>
       </c>
       <c r="E22" t="n">
-        <v>1496295</v>
+        <v>112959790</v>
       </c>
       <c r="F22" t="n">
-        <v>46224</v>
+        <v>224359</v>
       </c>
       <c r="G22" t="n">
-        <v>315986</v>
+        <v>1418946</v>
       </c>
       <c r="H22" t="n">
-        <v>11686698</v>
+        <v>50058</v>
       </c>
       <c r="I22" t="n">
-        <v>109877105</v>
+        <v>300297</v>
       </c>
     </row>
     <row r="23">
@@ -930,418 +930,194 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>188166</v>
+        <v>9482852</v>
       </c>
       <c r="E23" t="n">
-        <v>1490179</v>
+        <v>111995916</v>
       </c>
       <c r="F23" t="n">
-        <v>45902</v>
+        <v>211677</v>
       </c>
       <c r="G23" t="n">
-        <v>300228</v>
+        <v>1376464</v>
       </c>
       <c r="H23" t="n">
-        <v>11555083</v>
+        <v>48641</v>
       </c>
       <c r="I23" t="n">
-        <v>108565379</v>
+        <v>279795</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>172992</v>
+        <v>11716351</v>
       </c>
       <c r="E24" t="n">
-        <v>1475065</v>
+        <v>108869466</v>
       </c>
       <c r="F24" t="n">
-        <v>43981</v>
+        <v>223081</v>
       </c>
       <c r="G24" t="n">
-        <v>297892</v>
+        <v>1415595</v>
       </c>
       <c r="H24" t="n">
-        <v>9799331</v>
+        <v>55107</v>
       </c>
       <c r="I24" t="n">
-        <v>114601688</v>
+        <v>298529</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>200013</v>
+        <v>11273469</v>
       </c>
       <c r="E25" t="n">
-        <v>1370687</v>
+        <v>91287121</v>
       </c>
       <c r="F25" t="n">
-        <v>39903</v>
+        <v>236327</v>
       </c>
       <c r="G25" t="n">
-        <v>291558</v>
+        <v>1332099</v>
       </c>
       <c r="H25" t="n">
-        <v>11488221</v>
+        <v>49625</v>
       </c>
       <c r="I25" t="n">
-        <v>107716937</v>
+        <v>259634</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>200414</v>
+        <v>9138391</v>
       </c>
       <c r="E26" t="n">
-        <v>1397437</v>
+        <v>109202005</v>
       </c>
       <c r="F26" t="n">
-        <v>40504</v>
+        <v>214044</v>
       </c>
       <c r="G26" t="n">
-        <v>258046</v>
+        <v>1520021</v>
       </c>
       <c r="H26" t="n">
-        <v>11639448</v>
+        <v>43211</v>
       </c>
       <c r="I26" t="n">
-        <v>108595610</v>
+        <v>365115</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>194419</v>
+        <v>10630941</v>
       </c>
       <c r="E27" t="n">
-        <v>1393662</v>
+        <v>102282109</v>
       </c>
       <c r="F27" t="n">
-        <v>43191</v>
+        <v>220183</v>
       </c>
       <c r="G27" t="n">
-        <v>262023</v>
+        <v>1471953</v>
       </c>
       <c r="H27" t="n">
-        <v>10789821</v>
+        <v>51329</v>
       </c>
       <c r="I27" t="n">
-        <v>109905730</v>
+        <v>298508</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>203501</v>
+        <v>12452950</v>
       </c>
       <c r="E28" t="n">
-        <v>1432355</v>
+        <v>102746680</v>
       </c>
       <c r="F28" t="n">
-        <v>48083</v>
+        <v>228717</v>
       </c>
       <c r="G28" t="n">
-        <v>281563</v>
+        <v>1528929</v>
       </c>
       <c r="H28" t="n">
-        <v>10298817</v>
+        <v>48119</v>
       </c>
       <c r="I28" t="n">
-        <v>113509802</v>
+        <v>292025</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>203106</v>
+        <v>11763975</v>
       </c>
       <c r="E29" t="n">
-        <v>1371759</v>
+        <v>96639056</v>
       </c>
       <c r="F29" t="n">
-        <v>42314</v>
+        <v>246132</v>
       </c>
       <c r="G29" t="n">
-        <v>278784</v>
+        <v>1501510</v>
       </c>
       <c r="H29" t="n">
-        <v>11140035</v>
+        <v>49271</v>
       </c>
       <c r="I29" t="n">
-        <v>106149535</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>224359</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1418946</v>
-      </c>
-      <c r="F30" t="n">
-        <v>50058</v>
-      </c>
-      <c r="G30" t="n">
-        <v>300297</v>
-      </c>
-      <c r="H30" t="n">
-        <v>11727030</v>
-      </c>
-      <c r="I30" t="n">
-        <v>112959790</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>211677</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1376464</v>
-      </c>
-      <c r="F31" t="n">
-        <v>48641</v>
-      </c>
-      <c r="G31" t="n">
-        <v>279795</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9482852</v>
-      </c>
-      <c r="I31" t="n">
-        <v>111995916</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>223081</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1415595</v>
-      </c>
-      <c r="F32" t="n">
-        <v>55107</v>
-      </c>
-      <c r="G32" t="n">
-        <v>298529</v>
-      </c>
-      <c r="H32" t="n">
-        <v>11716351</v>
-      </c>
-      <c r="I32" t="n">
-        <v>108869466</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>236327</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1332099</v>
-      </c>
-      <c r="F33" t="n">
-        <v>49625</v>
-      </c>
-      <c r="G33" t="n">
-        <v>259634</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11273469</v>
-      </c>
-      <c r="I33" t="n">
-        <v>91287121</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>214044</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1520021</v>
-      </c>
-      <c r="F34" t="n">
-        <v>43211</v>
-      </c>
-      <c r="G34" t="n">
-        <v>365115</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9138391</v>
-      </c>
-      <c r="I34" t="n">
-        <v>109202005</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>220183</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1471953</v>
-      </c>
-      <c r="F35" t="n">
-        <v>51329</v>
-      </c>
-      <c r="G35" t="n">
-        <v>298508</v>
-      </c>
-      <c r="H35" t="n">
-        <v>10630941</v>
-      </c>
-      <c r="I35" t="n">
-        <v>102282109</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>228717</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1528929</v>
-      </c>
-      <c r="F36" t="n">
-        <v>48119</v>
-      </c>
-      <c r="G36" t="n">
-        <v>292025</v>
-      </c>
-      <c r="H36" t="n">
-        <v>12452950</v>
-      </c>
-      <c r="I36" t="n">
-        <v>102746680</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>246132</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1501510</v>
-      </c>
-      <c r="F37" t="n">
-        <v>49271</v>
-      </c>
-      <c r="G37" t="n">
         <v>293841</v>
-      </c>
-      <c r="H37" t="n">
-        <v>11763975</v>
-      </c>
-      <c r="I37" t="n">
-        <v>96639056</v>
       </c>
     </row>
   </sheetData>
